--- a/EXAM/Dataset/n_sektor1.xlsx
+++ b/EXAM/Dataset/n_sektor1.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,20 +480,20 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <f>(C12-C2)/C12*100</f>
-        <v>-14.999138970208371</v>
+        <f>(C12-C2)/C2*100</f>
+        <v>-13.04282719377059</v>
       </c>
       <c r="H2">
         <f>MAX(G2:G101)</f>
-        <v>47.251240841408645</v>
+        <v>89.57791916838427</v>
       </c>
       <c r="I2">
         <f>+MIN(G2:G101)</f>
-        <v>-241.90646024154981</v>
+        <v>-70.752234418340009</v>
       </c>
       <c r="J2">
-        <f>+(C102-C2)/C102*100</f>
-        <v>4.0172475745598275</v>
+        <f>+(C102-C2)/C2*100</f>
+        <v>4.1853848457622043</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -513,12 +513,12 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <f>(C13-C3)/C13*100</f>
-        <v>-28.396718096909023</v>
+        <f t="shared" ref="G3:G66" si="0">(C13-C3)/C3*100</f>
+        <v>-22.116389357768668</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" si="0">+(C103-C3)/C103*100</f>
-        <v>-27.921443627576988</v>
+        <f t="shared" ref="J3:J11" si="1">+(C103-C3)/C3*100</f>
+        <v>-21.827023551161481</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -538,12 +538,12 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G3:G66" si="1">(C14-C4)/C14*100</f>
-        <v>-14.790428173677478</v>
+        <f t="shared" si="0"/>
+        <v>-12.884722540889573</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>-12.041865589423431</v>
+        <f t="shared" si="1"/>
+        <v>-10.747648234947064</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -563,12 +563,12 @@
         <v>8</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-22.224632226290879</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>-28.575412579152861</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>-101.24531402454681</v>
+        <v>-50.309401992931605</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -588,12 +588,12 @@
         <v>9</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-31.710594482579978</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>-46.435598966359258</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>-101.66508864148356</v>
+        <v>-50.412835124983815</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -613,12 +613,12 @@
         <v>10</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-21.281307507563707</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>-27.0346303193597</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>-22.590142622261308</v>
+        <v>-18.427372820560805</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -638,12 +638,12 @@
         <v>11</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-7.9928243970500299</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>-8.6871750433275565</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>-16.198814156012599</v>
+        <v>-13.940601953358581</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -663,12 +663,12 @@
         <v>12</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-15.856311886683541</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>-18.844327176781004</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>-42.649325422798384</v>
+        <v>-29.898021106226778</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -688,12 +688,12 @@
         <v>13</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-12.58534071879428</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>-14.397288535219568</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>-18.926312564287748</v>
+        <v>-15.914318838446109</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -713,12 +713,12 @@
         <v>14</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-14.925275941783609</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>-17.543725362623906</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>-2.5441554539080498</v>
+        <v>-2.4810340897991079</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -738,8 +738,8 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <f>(C22-C12)/C22*100</f>
-        <v>-129.09557155538022</v>
+        <f t="shared" si="0"/>
+        <v>-56.350094713277073</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -759,8 +759,8 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-124.13832986352071</v>
+        <f t="shared" si="0"/>
+        <v>-55.384694772692086</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -780,8 +780,8 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>-77.210294705960791</v>
+        <f t="shared" si="0"/>
+        <v>-43.569869817141999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -801,8 +801,8 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>-88.976036209194902</v>
+        <f t="shared" si="0"/>
+        <v>-47.083237639030152</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -822,8 +822,8 @@
         <v>9</v>
       </c>
       <c r="G16">
-        <f>(C26-C16)/C26*100</f>
-        <v>-241.90646024154981</v>
+        <f>(C26-C16)/C16*100</f>
+        <v>-70.752234418340009</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -843,8 +843,8 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>-79.132656682518274</v>
+        <f t="shared" si="0"/>
+        <v>-44.17544971867818</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -864,8 +864,8 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>-44.774808681470333</v>
+        <f t="shared" si="0"/>
+        <v>-30.927209705372615</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -885,8 +885,8 @@
         <v>12</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>-100.79824809268155</v>
+        <f t="shared" si="0"/>
+        <v>-50.198768689533857</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -906,8 +906,8 @@
         <v>13</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>-44.933638443935926</v>
+        <f t="shared" si="0"/>
+        <v>-31.002905140836173</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -927,8 +927,8 @@
         <v>14</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>-61.699362584318337</v>
+        <f t="shared" si="0"/>
+        <v>-38.15683723066325</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -948,8 +948,8 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>38.214503351614873</v>
+        <f t="shared" si="0"/>
+        <v>61.850281092809944</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -969,8 +969,8 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>28.833648859988475</v>
+        <f t="shared" si="0"/>
+        <v>40.515845477677537</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -990,8 +990,8 @@
         <v>7</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>26.339570747998625</v>
+        <f t="shared" si="0"/>
+        <v>35.758101080144016</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1011,8 +1011,8 @@
         <v>8</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>4.0285094515029443E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0301329943888145E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1032,8 +1032,8 @@
         <v>9</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>10.788921830934992</v>
+        <f t="shared" si="0"/>
+        <v>12.093701872416309</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1053,8 +1053,8 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>26.654172523296371</v>
+        <f t="shared" si="0"/>
+        <v>36.3404074100362</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,8 +1074,8 @@
         <v>11</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>-18.872567295503693</v>
+        <f t="shared" si="0"/>
+        <v>-15.876301593275624</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1095,8 +1095,8 @@
         <v>12</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>8.5618318638374831</v>
+        <f t="shared" si="0"/>
+        <v>9.3635207685786934</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1116,8 +1116,8 @@
         <v>13</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>-39.450282942603074</v>
+        <f t="shared" si="0"/>
+        <v>-28.289855072463766</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,8 +1137,8 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>25.179423068018707</v>
+        <f t="shared" si="0"/>
+        <v>33.653072591125685</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1158,8 +1158,8 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>14.133221704777355</v>
+        <f t="shared" si="0"/>
+        <v>16.459475929311395</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1179,8 +1179,8 @@
         <v>6</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>23.682392110057165</v>
+        <f t="shared" si="0"/>
+        <v>31.031360605811177</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1200,8 +1200,8 @@
         <v>7</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>4.4308847688336073</v>
+        <f t="shared" si="0"/>
+        <v>4.6363145228623353</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1221,8 +1221,8 @@
         <v>8</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>-3.5988314231596519</v>
+        <f t="shared" si="0"/>
+        <v>-3.4738146885652306</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1242,8 +1242,8 @@
         <v>9</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>26.095553655408292</v>
+        <f t="shared" si="0"/>
+        <v>35.309856099501047</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1263,8 +1263,8 @@
         <v>10</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>12.9120007253933</v>
+        <f t="shared" si="0"/>
+        <v>14.826383466083607</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1284,8 +1284,8 @@
         <v>11</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>-12.211856252353261</v>
+        <f t="shared" si="0"/>
+        <v>-10.882857355901871</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1305,8 +1305,8 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>4.714571472534236</v>
+        <f t="shared" si="0"/>
+        <v>4.9478409714820915</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1326,8 +1326,8 @@
         <v>13</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>4.7149922970891112</v>
+        <f t="shared" si="0"/>
+        <v>4.9483044717695615</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1347,8 +1347,8 @@
         <v>14</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>27.66762676669569</v>
+        <f t="shared" si="0"/>
+        <v>38.250682965226652</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1368,8 +1368,8 @@
         <v>5</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>11.461663192031503</v>
+        <f t="shared" si="0"/>
+        <v>12.945424101302915</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1389,8 +1389,8 @@
         <v>6</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>15.723436920959289</v>
+        <f t="shared" si="0"/>
+        <v>18.65695081349331</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1410,8 +1410,8 @@
         <v>7</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>-1.7673752089801769</v>
+        <f t="shared" si="0"/>
+        <v>-1.73668153015724</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1431,8 +1431,8 @@
         <v>8</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>8.9769439817655829</v>
+        <f t="shared" si="0"/>
+        <v>9.8622748723875571</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,8 +1452,8 @@
         <v>9</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>13.797392546183259</v>
+        <f t="shared" si="0"/>
+        <v>16.005771697306542</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1473,8 +1473,8 @@
         <v>10</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>17.000940733772342</v>
+        <f t="shared" si="0"/>
+        <v>20.483293285578274</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1494,8 +1494,8 @@
         <v>11</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>21.826863328645715</v>
+        <f t="shared" si="0"/>
+        <v>27.921181441660043</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1515,8 +1515,8 @@
         <v>12</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>9.0209144105048011</v>
+        <f t="shared" si="0"/>
+        <v>9.9153715956300967</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1536,8 +1536,8 @@
         <v>13</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>28.822069602354706</v>
+        <f t="shared" si="0"/>
+        <v>40.492986296926944</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,8 +1557,8 @@
         <v>14</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>7.1464112451797481</v>
+        <f t="shared" si="0"/>
+        <v>7.6964297675664817</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1578,8 +1578,8 @@
         <v>5</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>-0.65283282816507349</v>
+        <f t="shared" si="0"/>
+        <v>-0.64859856381746583</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1599,8 +1599,8 @@
         <v>6</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>-12.824035360172022</v>
+        <f t="shared" si="0"/>
+        <v>-11.3664037270369</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1620,8 +1620,8 @@
         <v>7</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>-0.21541407371948301</v>
+        <f t="shared" si="0"/>
+        <v>-0.21495103893002149</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1641,8 +1641,8 @@
         <v>8</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>-7.9663048965169114</v>
+        <f t="shared" si="0"/>
+        <v>-7.3785102714707342</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1662,8 +1662,8 @@
         <v>9</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>-7.6362374175633461</v>
+        <f t="shared" si="0"/>
+        <v>-7.0944856497903901</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1683,8 +1683,8 @@
         <v>10</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>-18.887845031986757</v>
+        <f t="shared" si="0"/>
+        <v>-15.887111947318907</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1704,8 +1704,8 @@
         <v>11</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>4.934087800024872</v>
+        <f t="shared" si="0"/>
+        <v>5.1901756221996926</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1725,8 +1725,8 @@
         <v>12</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>-3.3448106246925726</v>
+        <f t="shared" si="0"/>
+        <v>-3.2365540218943361</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1746,8 +1746,8 @@
         <v>13</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>3.5620860466410642</v>
+        <f t="shared" si="0"/>
+        <v>3.6936572978588331</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1767,8 +1767,8 @@
         <v>14</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>3.5831009564930585</v>
+        <f t="shared" si="0"/>
+        <v>3.71625824107476</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1788,8 +1788,8 @@
         <v>5</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>3.9116408280311856</v>
+        <f t="shared" si="0"/>
+        <v>4.070878992772208</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1809,8 +1809,8 @@
         <v>6</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>15.354669093482986</v>
+        <f t="shared" si="0"/>
+        <v>18.140007167602437</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1830,8 +1830,8 @@
         <v>7</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>11.546767159249693</v>
+        <f t="shared" si="0"/>
+        <v>13.054092867400671</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1851,8 +1851,8 @@
         <v>8</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>5.5626731817775523</v>
+        <f t="shared" si="0"/>
+        <v>5.8903331650681476</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1872,8 +1872,8 @@
         <v>9</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>11.205530116238112</v>
+        <f t="shared" si="0"/>
+        <v>12.619626121882282</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,8 +1893,8 @@
         <v>10</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G111" si="2">(C77-C67)/C77*100</f>
-        <v>11.718009478672986</v>
+        <f t="shared" ref="G67:G111" si="2">(C77-C67)/C67*100</f>
+        <v>13.273386122668098</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="2"/>
-        <v>21.633408863874472</v>
+        <v>27.60539733863947</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="2"/>
-        <v>15.881322104853234</v>
+        <v>18.879662046815778</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="2"/>
-        <v>13.584878435899286</v>
+        <v>15.720487560527635</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="2"/>
-        <v>7.1907610964240991</v>
+        <v>7.7478936163833172</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="2"/>
-        <v>47.251240841408645</v>
+        <v>89.57791916838427</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="2"/>
-        <v>2.5040666436634296</v>
+        <v>2.5683806056929064</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="2"/>
-        <v>13.115296887646236</v>
+        <v>15.095058644196977</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="2"/>
-        <v>7.712824461064673</v>
+        <v>8.3574173941542771</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="2"/>
-        <v>14.294339622641509</v>
+        <v>16.678407890102147</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="2"/>
-        <v>30.382183117954359</v>
+        <v>43.641390205371252</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="2"/>
-        <v>29.825431292423961</v>
+        <v>42.501766440075045</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="2"/>
-        <v>13.925376573858756</v>
+        <v>16.1782602346298</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="2"/>
-        <v>2.4377082257988834</v>
+        <v>2.4986172233845561</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="2"/>
-        <v>4.2779893982579047</v>
+        <v>4.4691804647279811</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="2"/>
-        <v>-40.705021616228798</v>
+        <v>-28.929331127393048</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="2"/>
-        <v>-7.9612580490660418</v>
+        <v>-7.3741805096860054</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="2"/>
-        <v>-1.9656388326206018</v>
+        <v>-1.9277463027003165</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="2"/>
-        <v>8.9775997997747456</v>
+        <v>9.8630664320281571</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="2"/>
-        <v>12.497936272081889</v>
+        <v>14.283018867924529</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="2"/>
-        <v>-32.139223950007271</v>
+        <v>-24.322243607368708</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="2"/>
-        <v>-38.624351164940393</v>
+        <v>-27.86260194573153</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="2"/>
-        <v>3.1608204337505832</v>
+        <v>3.2639892736681122</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="2"/>
-        <v>3.8832762042215405</v>
+        <v>4.0401670498803437</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="2"/>
-        <v>-31.478303505761218</v>
+        <v>-23.941823606190564</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="2"/>
-        <v>-8.048868127919512</v>
+        <v>-7.449285001662787</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="2"/>
-        <v>3.3931417407845355</v>
+        <v>3.5123197275291362</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="2"/>
-        <v>2.1006243114212264</v>
+        <v>2.1456973516392828</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>-2.5907667026138759</v>
+        <v>-2.5253410086347143</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="2"/>
-        <v>1.123118613079108</v>
+        <v>1.1358758461284464</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="2"/>
-        <v>-5.2422284250372808</v>
+        <v>-4.9811073971806428</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="2"/>
-        <v>2.2813600148230497</v>
+        <v>2.3346211277286626</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="2"/>
-        <v>-4.0706880898591731</v>
+        <v>-3.9114645675681161</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="G100">
         <f t="shared" si="2"/>
-        <v>2.9523121703543214</v>
+        <v>3.0421252029586867</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G101">
         <f t="shared" si="2"/>
-        <v>4.6676237855163434</v>
+        <v>4.8961580219241405</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -2627,9 +2627,9 @@
       <c r="E102" t="s">
         <v>5</v>
       </c>
-      <c r="G102" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,9 +2648,9 @@
       <c r="E103" t="s">
         <v>6</v>
       </c>
-      <c r="G103" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -2669,9 +2669,9 @@
       <c r="E104" t="s">
         <v>7</v>
       </c>
-      <c r="G104" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -2690,9 +2690,9 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="G105" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -2711,9 +2711,9 @@
       <c r="E106" t="s">
         <v>9</v>
       </c>
-      <c r="G106" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -2732,9 +2732,9 @@
       <c r="E107" t="s">
         <v>10</v>
       </c>
-      <c r="G107" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -2753,9 +2753,9 @@
       <c r="E108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -2774,9 +2774,9 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-      <c r="G109" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -2795,9 +2795,9 @@
       <c r="E110" t="s">
         <v>13</v>
       </c>
-      <c r="G110" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -2816,9 +2816,9 @@
       <c r="E111" t="s">
         <v>14</v>
       </c>
-      <c r="G111" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>

--- a/EXAM/Dataset/n_sektor1.xlsx
+++ b/EXAM/Dataset/n_sektor1.xlsx
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="16">
   <si>
     <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>sektor</t>
   </si>
   <si>
     <t>it</t>
@@ -65,6 +59,9 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>sector</t>
   </si>
 </sst>
 </file>
@@ -432,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,2372 +448,2039 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>26712</v>
       </c>
       <c r="C2">
-        <v>26712</v>
-      </c>
-      <c r="D2">
         <v>2007</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>(B12-B2)/B2*100</f>
+        <v>-13.04282719377059</v>
       </c>
       <c r="G2">
-        <f>(C12-C2)/C2*100</f>
-        <v>-13.04282719377059</v>
+        <f>MAX(F2:F101)</f>
+        <v>89.57791916838427</v>
       </c>
       <c r="H2">
-        <f>MAX(G2:G101)</f>
-        <v>89.57791916838427</v>
+        <f>+MIN(F2:F101)</f>
+        <v>-70.752234418340009</v>
       </c>
       <c r="I2">
-        <f>+MIN(G2:G101)</f>
-        <v>-70.752234418340009</v>
-      </c>
-      <c r="J2">
-        <f>+(C102-C2)/C2*100</f>
+        <f>+(B102-B2)/B2*100</f>
         <v>4.1853848457622043</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>24882</v>
       </c>
       <c r="C3">
-        <v>24882</v>
-      </c>
-      <c r="D3">
         <v>2007</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">(C13-C3)/C3*100</f>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(B13-B3)/B3*100</f>
         <v>-22.116389357768668</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J11" si="1">+(C103-C3)/C3*100</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="1">+(B103-B3)/B3*100</f>
         <v>-21.827023551161481</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>30509</v>
       </c>
       <c r="C4">
-        <v>30509</v>
-      </c>
-      <c r="D4">
         <v>2007</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>-12.884722540889573</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>-10.747648234947064</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>78377</v>
       </c>
       <c r="C5">
-        <v>78377</v>
-      </c>
-      <c r="D5">
         <v>2007</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>-22.224632226290879</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>-50.309401992931605</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>61768</v>
       </c>
       <c r="C6">
-        <v>61768</v>
-      </c>
-      <c r="D6">
         <v>2007</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>-31.710594482579978</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>-50.412835124983815</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>32061</v>
       </c>
       <c r="C7">
-        <v>32061</v>
-      </c>
-      <c r="D7">
         <v>2007</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>-21.281307507563707</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>-18.427372820560805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>50170</v>
       </c>
       <c r="C8">
-        <v>50170</v>
-      </c>
-      <c r="D8">
         <v>2007</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>-7.9928243970500299</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>-13.940601953358581</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>67563</v>
       </c>
       <c r="C9">
-        <v>67563</v>
-      </c>
-      <c r="D9">
         <v>2007</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>-15.856311886683541</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>-29.898021106226778</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>54341</v>
       </c>
       <c r="C10">
-        <v>54341</v>
-      </c>
-      <c r="D10">
         <v>2007</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>-12.58534071879428</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>-15.914318838446109</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>30713</v>
       </c>
       <c r="C11">
-        <v>30713</v>
-      </c>
-      <c r="D11">
         <v>2007</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>-14.925275941783609</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>-2.4810340897991079</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>23228</v>
       </c>
       <c r="C12">
-        <v>23228</v>
-      </c>
-      <c r="D12">
         <v>2008</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>-56.350094713277073</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>19379</v>
       </c>
       <c r="C13">
-        <v>19379</v>
-      </c>
-      <c r="D13">
         <v>2008</v>
       </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>-55.384694772692086</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>26578</v>
       </c>
       <c r="C14">
-        <v>26578</v>
-      </c>
-      <c r="D14">
         <v>2008</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>-43.569869817141999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>60958</v>
       </c>
       <c r="C15">
-        <v>60958</v>
-      </c>
-      <c r="D15">
         <v>2008</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>-47.083237639030152</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>42181</v>
       </c>
       <c r="C16">
-        <v>42181</v>
-      </c>
-      <c r="D16">
         <v>2008</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <f>(C26-C16)/C16*100</f>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f>(B26-B16)/B16*100</f>
         <v>-70.752234418340009</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>25238</v>
       </c>
       <c r="C17">
-        <v>25238</v>
-      </c>
-      <c r="D17">
         <v>2008</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>-44.17544971867818</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>46160</v>
       </c>
       <c r="C18">
-        <v>46160</v>
-      </c>
-      <c r="D18">
         <v>2008</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>-30.927209705372615</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>56850</v>
       </c>
       <c r="C19">
-        <v>56850</v>
-      </c>
-      <c r="D19">
         <v>2008</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>-50.198768689533857</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>47502</v>
       </c>
       <c r="C20">
-        <v>47502</v>
-      </c>
-      <c r="D20">
         <v>2008</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>-31.002905140836173</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>26129</v>
       </c>
       <c r="C21">
-        <v>26129</v>
-      </c>
-      <c r="D21">
         <v>2008</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>-38.15683723066325</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>10139</v>
       </c>
       <c r="C22">
-        <v>10139</v>
-      </c>
-      <c r="D22">
         <v>2009</v>
       </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22">
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>61.850281092809944</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>8646</v>
       </c>
       <c r="C23">
-        <v>8646</v>
-      </c>
-      <c r="D23">
         <v>2009</v>
       </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23">
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>40.515845477677537</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>14998</v>
       </c>
       <c r="C24">
-        <v>14998</v>
-      </c>
-      <c r="D24">
         <v>2009</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24">
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>35.758101080144016</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>32257</v>
       </c>
       <c r="C25">
-        <v>32257</v>
-      </c>
-      <c r="D25">
         <v>2009</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>4.0301329943888145E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>12337</v>
       </c>
       <c r="C26">
-        <v>12337</v>
-      </c>
-      <c r="D26">
         <v>2009</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>12.093701872416309</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>14089</v>
       </c>
       <c r="C27">
-        <v>14089</v>
-      </c>
-      <c r="D27">
         <v>2009</v>
       </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>36.3404074100362</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>31884</v>
       </c>
       <c r="C28">
-        <v>31884</v>
-      </c>
-      <c r="D28">
         <v>2009</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>-15.876301593275624</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28312</v>
       </c>
       <c r="C29">
-        <v>28312</v>
-      </c>
-      <c r="D29">
         <v>2009</v>
       </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>9.3635207685786934</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>32775</v>
       </c>
       <c r="C30">
-        <v>32775</v>
-      </c>
-      <c r="D30">
         <v>2009</v>
       </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30">
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>-28.289855072463766</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>16159</v>
       </c>
       <c r="C31">
-        <v>16159</v>
-      </c>
-      <c r="D31">
         <v>2009</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>33.653072591125685</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>16410</v>
       </c>
       <c r="C32">
-        <v>16410</v>
-      </c>
-      <c r="D32">
         <v>2010</v>
       </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32">
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>16.459475929311395</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>12149</v>
       </c>
       <c r="C33">
-        <v>12149</v>
-      </c>
-      <c r="D33">
         <v>2010</v>
       </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33">
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>31.031360605811177</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>20361</v>
       </c>
       <c r="C34">
-        <v>20361</v>
-      </c>
-      <c r="D34">
         <v>2010</v>
       </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34">
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>4.6363145228623353</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>32270</v>
       </c>
       <c r="C35">
-        <v>32270</v>
-      </c>
-      <c r="D35">
         <v>2010</v>
       </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>-3.4738146885652306</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>13829</v>
       </c>
       <c r="C36">
-        <v>13829</v>
-      </c>
-      <c r="D36">
         <v>2010</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>35.309856099501047</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>19209</v>
       </c>
       <c r="C37">
-        <v>19209</v>
-      </c>
-      <c r="D37">
         <v>2010</v>
       </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>14.826383466083607</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>26822</v>
       </c>
       <c r="C38">
-        <v>26822</v>
-      </c>
-      <c r="D38">
         <v>2010</v>
       </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>-10.882857355901871</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>30963</v>
       </c>
       <c r="C39">
-        <v>30963</v>
-      </c>
-      <c r="D39">
         <v>2010</v>
       </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>4.9478409714820915</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>23503</v>
       </c>
       <c r="C40">
-        <v>23503</v>
-      </c>
-      <c r="D40">
         <v>2010</v>
       </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="0"/>
         <v>4.9483044717695615</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>21597</v>
       </c>
       <c r="C41">
-        <v>21597</v>
-      </c>
-      <c r="D41">
         <v>2010</v>
       </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>38.250682965226652</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>19111</v>
       </c>
       <c r="C42">
-        <v>19111</v>
-      </c>
-      <c r="D42">
         <v>2011</v>
       </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42">
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>12.945424101302915</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>15919</v>
       </c>
       <c r="C43">
-        <v>15919</v>
-      </c>
-      <c r="D43">
         <v>2011</v>
       </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43">
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>18.65695081349331</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>42</v>
+        <v>21305</v>
       </c>
       <c r="C44">
-        <v>21305</v>
-      </c>
-      <c r="D44">
         <v>2011</v>
       </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44">
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>-1.73668153015724</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>31149</v>
       </c>
       <c r="C45">
-        <v>31149</v>
-      </c>
-      <c r="D45">
         <v>2011</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45">
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>9.8622748723875571</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>18712</v>
       </c>
       <c r="C46">
-        <v>18712</v>
-      </c>
-      <c r="D46">
         <v>2011</v>
       </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>16.005771697306542</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>22057</v>
       </c>
       <c r="C47">
-        <v>22057</v>
-      </c>
-      <c r="D47">
         <v>2011</v>
       </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47">
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="0"/>
         <v>20.483293285578274</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>23903</v>
       </c>
       <c r="C48">
-        <v>23903</v>
-      </c>
-      <c r="D48">
         <v>2011</v>
       </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48">
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>27.921181441660043</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>32495</v>
       </c>
       <c r="C49">
-        <v>32495</v>
-      </c>
-      <c r="D49">
         <v>2011</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>9.9153715956300967</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>24666</v>
       </c>
       <c r="C50">
-        <v>24666</v>
-      </c>
-      <c r="D50">
         <v>2011</v>
       </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>40.492986296926944</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>29858</v>
       </c>
       <c r="C51">
-        <v>29858</v>
-      </c>
-      <c r="D51">
         <v>2011</v>
       </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="0"/>
         <v>7.6964297675664817</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>21585</v>
       </c>
       <c r="C52">
-        <v>21585</v>
-      </c>
-      <c r="D52">
         <v>2012</v>
       </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52">
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="0"/>
         <v>-0.64859856381746583</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>18889</v>
       </c>
       <c r="C53">
-        <v>18889</v>
-      </c>
-      <c r="D53">
         <v>2012</v>
       </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53">
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>-11.3664037270369</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>20935</v>
       </c>
       <c r="C54">
-        <v>20935</v>
-      </c>
-      <c r="D54">
         <v>2012</v>
       </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54">
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="0"/>
         <v>-0.21495103893002149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>34221</v>
       </c>
       <c r="C55">
-        <v>34221</v>
-      </c>
-      <c r="D55">
         <v>2012</v>
       </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>-7.3785102714707342</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>21707</v>
       </c>
       <c r="C56">
-        <v>21707</v>
-      </c>
-      <c r="D56">
         <v>2012</v>
       </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="0"/>
         <v>-7.0944856497903901</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>55</v>
+        <v>26575</v>
       </c>
       <c r="C57">
-        <v>26575</v>
-      </c>
-      <c r="D57">
         <v>2012</v>
       </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57">
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>-15.887111947318907</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>56</v>
+        <v>30577</v>
       </c>
       <c r="C58">
-        <v>30577</v>
-      </c>
-      <c r="D58">
         <v>2012</v>
       </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58">
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="0"/>
         <v>5.1901756221996926</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>57</v>
+        <v>35717</v>
       </c>
       <c r="C59">
-        <v>35717</v>
-      </c>
-      <c r="D59">
         <v>2012</v>
       </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59">
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="0"/>
         <v>-3.2365540218943361</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>34654</v>
       </c>
       <c r="C60">
-        <v>34654</v>
-      </c>
-      <c r="D60">
         <v>2012</v>
       </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60">
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="0"/>
         <v>3.6936572978588331</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>32156</v>
       </c>
       <c r="C61">
-        <v>32156</v>
-      </c>
-      <c r="D61">
         <v>2012</v>
       </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61">
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>3.71625824107476</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>60</v>
+        <v>21445</v>
       </c>
       <c r="C62">
-        <v>21445</v>
-      </c>
-      <c r="D62">
         <v>2013</v>
       </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62">
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="0"/>
         <v>4.070878992772208</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>16742</v>
       </c>
       <c r="C63">
-        <v>16742</v>
-      </c>
-      <c r="D63">
         <v>2013</v>
       </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63">
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>18.140007167602437</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>62</v>
+        <v>20890</v>
       </c>
       <c r="C64">
-        <v>20890</v>
-      </c>
-      <c r="D64">
         <v>2013</v>
       </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64">
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="0"/>
         <v>13.054092867400671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>31696</v>
       </c>
       <c r="C65">
-        <v>31696</v>
-      </c>
-      <c r="D65">
         <v>2013</v>
       </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65">
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="0"/>
         <v>5.8903331650681476</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>64</v>
+        <v>20167</v>
       </c>
       <c r="C66">
-        <v>20167</v>
-      </c>
-      <c r="D66">
         <v>2013</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66">
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="0"/>
         <v>12.619626121882282</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>65</v>
+        <v>22353</v>
       </c>
       <c r="C67">
-        <v>22353</v>
-      </c>
-      <c r="D67">
         <v>2013</v>
       </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G111" si="2">(C77-C67)/C67*100</f>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F111" si="2">(B77-B67)/B67*100</f>
         <v>13.273386122668098</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>66</v>
+        <v>32164</v>
       </c>
       <c r="C68">
-        <v>32164</v>
-      </c>
-      <c r="D68">
         <v>2013</v>
       </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68">
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="2"/>
         <v>27.60539733863947</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>67</v>
+        <v>34561</v>
       </c>
       <c r="C69">
-        <v>34561</v>
-      </c>
-      <c r="D69">
         <v>2013</v>
       </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69">
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="2"/>
         <v>18.879662046815778</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>68</v>
+        <v>35934</v>
       </c>
       <c r="C70">
-        <v>35934</v>
-      </c>
-      <c r="D70">
         <v>2013</v>
       </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70">
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="2"/>
         <v>15.720487560527635</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>69</v>
+        <v>33351</v>
       </c>
       <c r="C71">
-        <v>33351</v>
-      </c>
-      <c r="D71">
         <v>2013</v>
       </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71">
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="2"/>
         <v>7.7478936163833172</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>22318</v>
       </c>
       <c r="C72">
-        <v>22318</v>
-      </c>
-      <c r="D72">
         <v>2014</v>
       </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72">
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="2"/>
         <v>89.57791916838427</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>71</v>
+        <v>19779</v>
       </c>
       <c r="C73">
-        <v>19779</v>
-      </c>
-      <c r="D73">
         <v>2014</v>
       </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73">
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="2"/>
         <v>2.5683806056929064</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>72</v>
+        <v>23617</v>
       </c>
       <c r="C74">
-        <v>23617</v>
-      </c>
-      <c r="D74">
         <v>2014</v>
       </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74">
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="2"/>
         <v>15.095058644196977</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>73</v>
+        <v>33563</v>
       </c>
       <c r="C75">
-        <v>33563</v>
-      </c>
-      <c r="D75">
         <v>2014</v>
       </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75">
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="2"/>
         <v>8.3574173941542771</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>74</v>
+        <v>22712</v>
       </c>
       <c r="C76">
-        <v>22712</v>
-      </c>
-      <c r="D76">
         <v>2014</v>
       </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76">
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="2"/>
         <v>16.678407890102147</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>75</v>
+        <v>25320</v>
       </c>
       <c r="C77">
-        <v>25320</v>
-      </c>
-      <c r="D77">
         <v>2014</v>
       </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77">
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="2"/>
         <v>43.641390205371252</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>76</v>
+        <v>41043</v>
       </c>
       <c r="C78">
-        <v>41043</v>
-      </c>
-      <c r="D78">
         <v>2014</v>
       </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78">
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="2"/>
         <v>42.501766440075045</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>41086</v>
       </c>
       <c r="C79">
-        <v>41086</v>
-      </c>
-      <c r="D79">
         <v>2014</v>
       </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79">
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="2"/>
         <v>16.1782602346298</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>41583</v>
       </c>
       <c r="C80">
-        <v>41583</v>
-      </c>
-      <c r="D80">
         <v>2014</v>
       </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80">
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="2"/>
         <v>2.4986172233845561</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>35935</v>
       </c>
       <c r="C81">
-        <v>35935</v>
-      </c>
-      <c r="D81">
         <v>2014</v>
       </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81">
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="2"/>
         <v>4.4691804647279811</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>42310</v>
       </c>
       <c r="C82">
-        <v>42310</v>
-      </c>
-      <c r="D82">
         <v>2015</v>
       </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82">
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="2"/>
         <v>-28.929331127393048</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>81</v>
+        <v>20287</v>
       </c>
       <c r="C83">
-        <v>20287</v>
-      </c>
-      <c r="D83">
         <v>2015</v>
       </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83">
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="2"/>
         <v>-7.3741805096860054</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>82</v>
+        <v>27182</v>
       </c>
       <c r="C84">
-        <v>27182</v>
-      </c>
-      <c r="D84">
         <v>2015</v>
       </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84">
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="2"/>
         <v>-1.9277463027003165</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>83</v>
+        <v>36368</v>
       </c>
       <c r="C85">
-        <v>36368</v>
-      </c>
-      <c r="D85">
         <v>2015</v>
       </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85">
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85">
         <f t="shared" si="2"/>
         <v>9.8630664320281571</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>84</v>
+        <v>26500</v>
       </c>
       <c r="C86">
-        <v>26500</v>
-      </c>
-      <c r="D86">
         <v>2015</v>
       </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86">
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="2"/>
         <v>14.283018867924529</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>85</v>
+        <v>36370</v>
       </c>
       <c r="C87">
-        <v>36370</v>
-      </c>
-      <c r="D87">
         <v>2015</v>
       </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87">
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87">
         <f t="shared" si="2"/>
         <v>-24.322243607368708</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>86</v>
+        <v>58487</v>
       </c>
       <c r="C88">
-        <v>58487</v>
-      </c>
-      <c r="D88">
         <v>2015</v>
       </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88">
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
         <f t="shared" si="2"/>
         <v>-27.86260194573153</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>87</v>
+        <v>47733</v>
       </c>
       <c r="C89">
-        <v>47733</v>
-      </c>
-      <c r="D89">
         <v>2015</v>
       </c>
-      <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89">
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89">
         <f t="shared" si="2"/>
         <v>3.2639892736681122</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>88</v>
+        <v>42622</v>
       </c>
       <c r="C90">
-        <v>42622</v>
-      </c>
-      <c r="D90">
         <v>2015</v>
       </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90">
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90">
         <f t="shared" si="2"/>
         <v>4.0401670498803437</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>89</v>
+        <v>37541</v>
       </c>
       <c r="C91">
-        <v>37541</v>
-      </c>
-      <c r="D91">
         <v>2015</v>
       </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91">
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91">
         <f t="shared" si="2"/>
         <v>-23.941823606190564</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>90</v>
+        <v>30070</v>
       </c>
       <c r="C92">
-        <v>30070</v>
-      </c>
-      <c r="D92">
         <v>2016</v>
       </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92">
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
         <f t="shared" si="2"/>
         <v>-7.449285001662787</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>18791</v>
       </c>
       <c r="C93">
-        <v>18791</v>
-      </c>
-      <c r="D93">
         <v>2016</v>
       </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93">
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="2"/>
         <v>3.5123197275291362</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>92</v>
+        <v>26658</v>
       </c>
       <c r="C94">
-        <v>26658</v>
-      </c>
-      <c r="D94">
         <v>2016</v>
       </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94">
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94">
         <f t="shared" si="2"/>
         <v>2.1456973516392828</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>93</v>
+        <v>39955</v>
       </c>
       <c r="C95">
-        <v>39955</v>
-      </c>
-      <c r="D95">
         <v>2016</v>
       </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95">
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="2"/>
         <v>-2.5253410086347143</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>94</v>
+        <v>30285</v>
       </c>
       <c r="C96">
-        <v>30285</v>
-      </c>
-      <c r="D96">
         <v>2016</v>
       </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96">
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="2"/>
         <v>1.1358758461284464</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>95</v>
+        <v>27524</v>
       </c>
       <c r="C97">
-        <v>27524</v>
-      </c>
-      <c r="D97">
         <v>2016</v>
       </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97">
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="2"/>
         <v>-4.9811073971806428</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>96</v>
+        <v>42191</v>
       </c>
       <c r="C98">
-        <v>42191</v>
-      </c>
-      <c r="D98">
         <v>2016</v>
       </c>
-      <c r="E98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98">
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
         <f t="shared" si="2"/>
         <v>2.3346211277286626</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>97</v>
+        <v>49291</v>
       </c>
       <c r="C99">
-        <v>49291</v>
-      </c>
-      <c r="D99">
         <v>2016</v>
       </c>
-      <c r="E99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99">
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99">
         <f t="shared" si="2"/>
         <v>-3.9114645675681161</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>44344</v>
       </c>
       <c r="C100">
-        <v>44344</v>
-      </c>
-      <c r="D100">
         <v>2016</v>
       </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100">
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
         <f t="shared" si="2"/>
         <v>3.0421252029586867</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>99</v>
+        <v>28553</v>
       </c>
       <c r="C101">
-        <v>28553</v>
-      </c>
-      <c r="D101">
         <v>2016</v>
       </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101">
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101">
         <f t="shared" si="2"/>
         <v>4.8961580219241405</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>100</v>
+        <v>27830</v>
       </c>
       <c r="C102">
-        <v>27830</v>
-      </c>
-      <c r="D102">
         <v>2017</v>
       </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102">
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>101</v>
+        <v>19451</v>
       </c>
       <c r="C103">
-        <v>19451</v>
-      </c>
-      <c r="D103">
         <v>2017</v>
       </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103">
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>102</v>
+        <v>27230</v>
       </c>
       <c r="C104">
-        <v>27230</v>
-      </c>
-      <c r="D104">
         <v>2017</v>
       </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104">
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>38946</v>
       </c>
       <c r="C105">
-        <v>38946</v>
-      </c>
-      <c r="D105">
         <v>2017</v>
       </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105">
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>104</v>
+        <v>30629</v>
       </c>
       <c r="C106">
-        <v>30629</v>
-      </c>
-      <c r="D106">
         <v>2017</v>
       </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106">
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>105</v>
+        <v>26153</v>
       </c>
       <c r="C107">
-        <v>26153</v>
-      </c>
-      <c r="D107">
         <v>2017</v>
       </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107">
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>106</v>
+        <v>43176</v>
       </c>
       <c r="C108">
-        <v>43176</v>
-      </c>
-      <c r="D108">
         <v>2017</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108">
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>107</v>
+        <v>47363</v>
       </c>
       <c r="C109">
-        <v>47363</v>
-      </c>
-      <c r="D109">
         <v>2017</v>
       </c>
-      <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109">
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>108</v>
+        <v>45693</v>
       </c>
       <c r="C110">
-        <v>45693</v>
-      </c>
-      <c r="D110">
         <v>2017</v>
       </c>
-      <c r="E110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110">
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>109</v>
+        <v>29951</v>
       </c>
       <c r="C111">
-        <v>29951</v>
-      </c>
-      <c r="D111">
         <v>2017</v>
       </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111">
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
